--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914390.832595001</v>
+        <v>3912503.251078598</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>123.5492650282466</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>314.2149671132071</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.10844059186253</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599767</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>129.9970282407505</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132223</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,10 +1582,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664941</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113201</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>169.1477376595837</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.5871646229798</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.87916681139866</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>49.38162151975473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.2787299119458</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500657</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.5975646709555</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>49.38162151975451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.0041688483412</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>73.31767254005719</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>60.34231996838582</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571498</v>
+        <v>1.599126004633327</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2572.351853615953</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1550.991915879943</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.029398939532</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>264.3261428644631</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>106.5777702969933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.950672805737</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>995.950672805737</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>995.950672805737</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>610.1624202074927</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>199.1765154178851</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>185.253111356476</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>185.253111356476</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.950672805737</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046677</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767608</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146242</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211726</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011344</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>1296.555866665168</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>1966.019627967827</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703575</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028576</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028576</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028576</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028576</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1017.064856369034</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.064856369034</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>576.4342094797789</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>576.4342094797789</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>355.6416303362488</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.010087623275</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405894</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405894</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405894</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>731.31772835508</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181194</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405894</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405894</v>
+        <v>192.0445326839209</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,67 +5735,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300493</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820796</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996865</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028569</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028569</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028569</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028569</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811257</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441651</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X22" t="n">
-        <v>465.7659634441651</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.9733843006351</v>
+        <v>415.8299478944155</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609666</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550798</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181191</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965603</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030242</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>199.2415044384083</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>199.2415044384083</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1313.782912028761</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1313.782912028761</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>1024.654273242319</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>1024.654273242319</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W28" t="n">
-        <v>1024.654273242319</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X28" t="n">
-        <v>796.6647223443018</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>199.2415044384083</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,22 +6540,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542169</v>
+        <v>604.5641438163793</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076807</v>
+        <v>491.3888261698434</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076807</v>
+        <v>397.0330520388785</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3571123076807</v>
+        <v>397.0330520388785</v>
       </c>
       <c r="F31" t="n">
-        <v>326.3571123076807</v>
+        <v>305.903969822339</v>
       </c>
       <c r="G31" t="n">
-        <v>213.942655908872</v>
+        <v>193.4895134235305</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569671</v>
+        <v>98.83237025284475</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933508</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667516</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818919</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652452</v>
+        <v>730.4517433652481</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030859</v>
+        <v>730.4517433652481</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6680,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7078,13 +7078,13 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7154,55 +7154,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982968</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,7 +7819,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970602</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>29.47535963978262</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943454</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776743</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772029</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445214</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498442</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359017</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025495</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684486102</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.6742649934473</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>52.39982339880555</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136112</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>52.55479583517054</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>176.3280338692824</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.55325026999154</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179247</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.63978772762181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>176.3280338692826</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.61130416987113</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>124.6031374435461</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965536</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801217</v>
+        <v>91.23070601801199</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437425</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>33.3682517705933</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.61686283108148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678385.4645851274</v>
+        <v>678385.4645851275</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887491</v>
+        <v>752620.9540887488</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.637124461</v>
       </c>
       <c r="N2" t="n">
+        <v>759463.6371244609</v>
+      </c>
+      <c r="O2" t="n">
+        <v>759463.637124461</v>
+      </c>
+      <c r="P2" t="n">
         <v>759463.6371244614</v>
-      </c>
-      <c r="O2" t="n">
-        <v>759463.6371244611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>759463.6371244611</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,25 +26375,25 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925924</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028456</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284592</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007445</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007371</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.73165600741</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007493</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.354170204</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732803</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.3688694122</v>
+        <v>-61280.36886941266</v>
       </c>
       <c r="C6" t="n">
-        <v>528687.5103451322</v>
+        <v>528687.5103451321</v>
       </c>
       <c r="D6" t="n">
-        <v>528687.5103451321</v>
+        <v>528687.510345132</v>
       </c>
       <c r="E6" t="n">
-        <v>98339.66643314129</v>
+        <v>98242.20730716917</v>
       </c>
       <c r="F6" t="n">
-        <v>623499.7029100375</v>
+        <v>623402.243784065</v>
       </c>
       <c r="G6" t="n">
-        <v>623499.7029100369</v>
+        <v>623402.2437840654</v>
       </c>
       <c r="H6" t="n">
-        <v>623499.7029100375</v>
+        <v>623402.2437840654</v>
       </c>
       <c r="I6" t="n">
-        <v>623499.7029100371</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="J6" t="n">
-        <v>447076.4837174444</v>
+        <v>446979.0245914726</v>
       </c>
       <c r="K6" t="n">
-        <v>585748.7860854767</v>
+        <v>585730.2923475419</v>
       </c>
       <c r="L6" t="n">
-        <v>621070.1056062408</v>
+        <v>621070.1056062409</v>
       </c>
       <c r="M6" t="n">
-        <v>496611.9971732706</v>
+        <v>496611.9971732705</v>
       </c>
       <c r="N6" t="n">
-        <v>631413.012407108</v>
+        <v>631413.0124071075</v>
       </c>
       <c r="O6" t="n">
         <v>631413.0124071077</v>
       </c>
       <c r="P6" t="n">
-        <v>587250.4071042622</v>
+        <v>587250.407104262</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541008</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,22 +26793,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,40 +26966,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27021,7 +27021,7 @@
         <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>225.6917036891664</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.46807450747582</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>82.85718120047571</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110309</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>21.93428800411075</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106057</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.203256628557</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076452</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879394</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560246</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.226021517838</v>
       </c>
       <c r="P15" t="n">
-        <v>236.5687745713073</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945088</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>570.7728848187826</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>437.8086013087276</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36051,7 +36051,7 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377835</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.3583680453835</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281941</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519464</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405104</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>506.0379672345555</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520626</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
